--- a/allachaindb.xlsx
+++ b/allachaindb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mydoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Achain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" tabRatio="844" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" tabRatio="844"/>
   </bookViews>
   <sheets>
     <sheet name="ALLdb" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="971">
   <si>
     <t>_alp_input_balance_entry</t>
   </si>
@@ -599,10 +599,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TransactionIdType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>signed_keys</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -625,10 +621,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deposits</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>withdraws</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -638,25 +630,6 @@
   </si>
   <si>
     <t>unordered_map&lt;AssetIdType, ShareType&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">alp_inport_asset
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Asset</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3229,10 +3202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>_result_to_request_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>asset_symbol_to_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3361,10 +3330,6 @@
   </si>
   <si>
     <t>待产块的交易</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>_trx_to_contract_iddb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3955,6 +3920,37 @@
   </si>
   <si>
     <t xml:space="preserve">    "trx_id": "9f8c868fdee974abb9e84a15f4705a867bc2bcb7"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">alp_inport_asset
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Asset</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_result_to_request_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4355,6 +4351,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4384,15 +4389,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4475,6 +4471,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4486,12 +4488,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4818,8 +4814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4935,7 +4931,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="54"/>
       <c r="B12" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -4962,7 +4958,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="54"/>
       <c r="B15" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -4983,7 +4979,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -4992,7 +4988,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -5001,7 +4997,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -5037,7 +5033,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -5064,7 +5060,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5079,7 +5075,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="54"/>
       <c r="B28" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -5165,7 +5161,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -5192,18 +5188,18 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>90</v>
@@ -5219,13 +5215,13 @@
       <c r="A5" s="73"/>
       <c r="B5" s="94"/>
       <c r="C5" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -5235,196 +5231,196 @@
         <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="73"/>
       <c r="B7" s="94"/>
       <c r="C7" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73"/>
       <c r="B8" s="94"/>
       <c r="C8" s="21" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="73"/>
       <c r="B9" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="73"/>
       <c r="B10" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="73"/>
       <c r="B11" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="73"/>
       <c r="B12" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5448,7 +5444,7 @@
   <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5467,7 +5463,7 @@
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -5479,12 +5475,12 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="79"/>
       <c r="G2" s="3" t="s">
         <v>83</v>
@@ -5495,7 +5491,7 @@
     </row>
     <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>967</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5503,24 +5499,24 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>77</v>
@@ -5533,13 +5529,13 @@
         <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="72"/>
       <c r="B5" s="72"/>
-      <c r="C5" s="65"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="71"/>
       <c r="E5" s="5" t="s">
         <v>73</v>
@@ -5549,16 +5545,16 @@
         <v>85</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="72"/>
       <c r="B6" s="72"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="71"/>
       <c r="E6" s="78" t="s">
-        <v>135</v>
+        <v>969</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>89</v>
@@ -5567,13 +5563,13 @@
         <v>88</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
-      <c r="C7" s="65"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
       <c r="F7" s="5" t="s">
@@ -5589,10 +5585,10 @@
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
-      <c r="C8" s="65"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="71"/>
       <c r="E8" s="78" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>78</v>
@@ -5607,7 +5603,7 @@
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
       <c r="B9" s="72"/>
-      <c r="C9" s="65"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="71"/>
       <c r="E9" s="71"/>
       <c r="F9" s="5" t="s">
@@ -5623,14 +5619,14 @@
     <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
       <c r="B10" s="72"/>
-      <c r="C10" s="65"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="71"/>
       <c r="E10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>115</v>
@@ -5639,7 +5635,7 @@
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
-      <c r="C11" s="65"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="71"/>
       <c r="E11" s="5" t="s">
         <v>75</v>
@@ -5655,9 +5651,9 @@
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="65"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="5" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -5665,113 +5661,113 @@
         <v>110</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
       <c r="C13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="I14" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
       <c r="C15" s="12" t="s">
-        <v>131</v>
+        <v>968</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="16" spans="1:9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
       <c r="B16" s="72"/>
       <c r="C16" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
       <c r="C18" s="5" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="11" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
       <c r="B19" s="72"/>
       <c r="C19" s="92" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>89</v>
@@ -5784,8 +5780,8 @@
       <c r="H19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="99" t="s">
-        <v>882</v>
+      <c r="I19" s="95" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="20" spans="1:9" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5803,13 +5799,13 @@
       <c r="H20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="100"/>
+      <c r="I20" s="96"/>
     </row>
     <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="98" t="s">
-        <v>883</v>
+      <c r="C21" s="100" t="s">
+        <v>878</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>89</v>
@@ -5822,8 +5818,8 @@
       <c r="H21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="100" t="s">
-        <v>884</v>
+      <c r="I21" s="96" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5841,327 +5837,327 @@
       <c r="H22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="100"/>
+      <c r="I22" s="96"/>
     </row>
     <row r="23" spans="1:9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
       <c r="C23" s="5" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
       <c r="C24" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I24" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
       <c r="C25" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="I25" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
       <c r="C26" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="95" t="s">
-        <v>150</v>
+      <c r="B27" s="97" t="s">
+        <v>147</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
       <c r="B28" s="54"/>
       <c r="C28" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B35" s="17"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
@@ -6171,22 +6167,22 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
@@ -6196,32 +6192,32 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
@@ -6231,27 +6227,27 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
@@ -6261,72 +6257,72 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
@@ -6336,61 +6332,66 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="A1:H1"/>
@@ -6399,11 +6400,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B4:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6436,7 +6432,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -6447,9 +6443,9 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="79"/>
       <c r="F2" s="30" t="s">
         <v>83</v>
@@ -6475,10 +6471,10 @@
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="86" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>77</v>
@@ -6496,7 +6492,7 @@
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="87"/>
-      <c r="B5" s="65"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="71"/>
       <c r="D5" s="5" t="s">
         <v>73</v>
@@ -6511,7 +6507,7 @@
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="87"/>
-      <c r="B6" s="65"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="71"/>
       <c r="D6" s="78" t="s">
         <v>86</v>
@@ -6528,7 +6524,7 @@
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="87"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
       <c r="E7" s="5" t="s">
@@ -6543,7 +6539,7 @@
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87"/>
-      <c r="B8" s="65"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="71"/>
       <c r="D8" s="78" t="s">
         <v>116</v>
@@ -6560,7 +6556,7 @@
     </row>
     <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="87"/>
-      <c r="B9" s="65"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="5" t="s">
@@ -6575,7 +6571,7 @@
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
-      <c r="B10" s="65"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="71"/>
       <c r="D10" s="5" t="s">
         <v>74</v>
@@ -6590,7 +6586,7 @@
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="87"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="71"/>
       <c r="D11" s="5" t="s">
         <v>75</v>
@@ -6605,7 +6601,7 @@
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="87"/>
-      <c r="B12" s="65"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
@@ -6621,224 +6617,224 @@
     <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="88"/>
       <c r="B13" s="5" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
@@ -6848,22 +6844,22 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
@@ -6873,32 +6869,32 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
@@ -6908,27 +6904,27 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
@@ -6938,72 +6934,72 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
@@ -7013,57 +7009,57 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7106,7 +7102,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -7136,39 +7132,39 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73"/>
       <c r="B5" s="76" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -7176,197 +7172,197 @@
       <c r="A6" s="73"/>
       <c r="B6" s="77"/>
       <c r="C6" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -7389,7 +7385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -7405,7 +7401,7 @@
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -7432,64 +7428,64 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="86" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="87"/>
       <c r="B5" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="87"/>
       <c r="B6" s="29" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="87"/>
       <c r="B7" s="29" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
@@ -7499,418 +7495,418 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="87"/>
       <c r="B9" s="76" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
       <c r="B10" s="77"/>
       <c r="C10" s="27" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="87"/>
       <c r="B11" s="77"/>
       <c r="C11" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="87"/>
       <c r="B12" s="77"/>
       <c r="C12" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="87"/>
       <c r="B13" s="77"/>
       <c r="C13" s="27" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="87"/>
       <c r="B14" s="77"/>
       <c r="C14" s="27" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="88"/>
       <c r="B15" s="29" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
@@ -7920,32 +7916,32 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -7968,8 +7964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7990,12 +7986,12 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>788</v>
+      <c r="A2" s="58" t="s">
+        <v>785</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
@@ -8003,224 +7999,224 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="34"/>
       <c r="C3" s="48" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="34"/>
       <c r="C4" s="50" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="34"/>
       <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F5" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="34"/>
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="34"/>
       <c r="C7" s="48" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="34"/>
       <c r="C8" s="48" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="58" t="s">
-        <v>818</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>853</v>
+      <c r="A9" s="61" t="s">
+        <v>814</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>848</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="F9" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="48" t="s">
-        <v>846</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>920</v>
+        <v>843</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="48" t="s">
-        <v>814</v>
+        <v>970</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="F12" s="62"/>
+        <v>842</v>
+      </c>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59" t="s">
-        <v>854</v>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62" t="s">
+        <v>849</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="1" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="50" t="s">
         <v>45</v>
       </c>
@@ -8228,123 +8224,123 @@
         <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="33"/>
       <c r="C22" s="5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="66" t="s">
-        <v>914</v>
+      <c r="A24" s="56" t="s">
+        <v>909</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="52" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="35"/>
       <c r="C25" s="52" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="44"/>
       <c r="C26" s="48" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="45"/>
       <c r="C27" s="48" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="51" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C30" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
       <c r="B31" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -8429,7 +8425,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>97</v>
@@ -8472,7 +8468,7 @@
         <v>84</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8487,7 +8483,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8495,17 +8491,17 @@
       <c r="B8" s="69"/>
       <c r="C8" s="71"/>
       <c r="D8" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="H8" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8520,7 +8516,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8538,7 +8534,7 @@
         <v>108</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8572,7 +8568,7 @@
         <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8666,7 +8662,7 @@
         <v>113</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8686,167 +8682,167 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
@@ -8856,342 +8852,342 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
@@ -9201,157 +9197,157 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
@@ -9361,342 +9357,342 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
@@ -9706,157 +9702,157 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
@@ -9866,342 +9862,342 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
@@ -10211,62 +10207,62 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A330" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10348,15 +10344,15 @@
         <v>65</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>96</v>
@@ -10430,7 +10426,7 @@
       <c r="C9" s="69"/>
       <c r="D9" s="71"/>
       <c r="E9" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>68</v>
@@ -10454,23 +10450,23 @@
       <c r="A11" s="73"/>
       <c r="B11" s="88"/>
       <c r="C11" s="38" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="73"/>
       <c r="B12" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -10485,37 +10481,37 @@
     <row r="13" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="73"/>
       <c r="B13" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="39"/>
       <c r="F13" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="73"/>
       <c r="B14" s="5" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="73"/>
       <c r="B15" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -10524,13 +10520,13 @@
         <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="73"/>
       <c r="B16" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -10539,13 +10535,13 @@
         <v>88</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="73"/>
       <c r="B17" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -10554,139 +10550,139 @@
         <v>88</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="73"/>
       <c r="B18" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="73"/>
       <c r="B19" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10728,7 +10724,7 @@
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -10750,7 +10746,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>120</v>
@@ -10758,148 +10754,148 @@
     </row>
     <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73"/>
       <c r="B5" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="73"/>
       <c r="B6" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="73"/>
       <c r="B7" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73"/>
       <c r="B8" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="73"/>
       <c r="B9" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10921,7 +10917,7 @@
   <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10933,724 +10929,724 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C6" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B8" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C9" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
@@ -11660,142 +11656,142 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -11824,7 +11820,7 @@
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -11857,290 +11853,290 @@
     </row>
     <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73"/>
       <c r="B5" s="90"/>
       <c r="C5" s="27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="73"/>
       <c r="B6" s="29" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="73"/>
       <c r="B7" s="29" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73"/>
       <c r="B8" s="29" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="73"/>
       <c r="B9" s="29" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="73"/>
       <c r="B10" s="29" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="73"/>
       <c r="B11" s="19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -12180,7 +12176,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -12207,436 +12203,436 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="86" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="87"/>
       <c r="B5" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="87"/>
       <c r="B6" s="5" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="87"/>
       <c r="B7" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87"/>
       <c r="B8" s="53" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="87"/>
       <c r="B9" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
       <c r="B10" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="87"/>
-      <c r="B11" s="55" t="s">
-        <v>381</v>
+      <c r="B11" s="58" t="s">
+        <v>378</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="87"/>
-      <c r="B12" s="56"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="87"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="53" t="s">
+        <v>933</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" t="s">
         <v>938</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F13" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="87"/>
-      <c r="B14" s="56"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F14" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="87"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="5" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F15" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="87"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="5" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="87"/>
-      <c r="B17" s="56"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="87"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="5" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F18" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="5" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="87"/>
       <c r="B20" s="91" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>940</v>
+        <v>928</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="88"/>
       <c r="B21" s="91"/>
       <c r="C21" s="48" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="F21" s="61"/>
+        <v>931</v>
+      </c>
+      <c r="F21" s="64"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -12678,7 +12674,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -12708,48 +12704,48 @@
         <v>91</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="72"/>
       <c r="B5" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="72"/>
       <c r="B6" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -12759,127 +12755,127 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="72"/>
       <c r="B8" s="5" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
       <c r="B9" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
       <c r="B10" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
       <c r="B11" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
       <c r="B12" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
       <c r="B13" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
       <c r="B14" s="13" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:7" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
       <c r="B15" s="13" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>630</v>
-      </c>
       <c r="G15" s="42" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
@@ -12890,192 +12886,192 @@
     <row r="17" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
       <c r="B17" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
       <c r="B18" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
       <c r="B19" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
       <c r="B20" s="92" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="62"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
       <c r="B21" s="92"/>
       <c r="C21" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="62"/>
+      <c r="F21" s="65"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/allachaindb.xlsx
+++ b/allachaindb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" tabRatio="844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" tabRatio="844" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ALLdb" sheetId="4" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="property_id_to_entry" sheetId="16" r:id="rId6"/>
     <sheet name="peers.leveldb" sheetId="14" r:id="rId7"/>
     <sheet name="account_id_to_entry" sheetId="11" r:id="rId8"/>
-    <sheet name="asset_id_to_entry" sheetId="12" r:id="rId9"/>
-    <sheet name="balance_id_to_entry" sheetId="10" r:id="rId10"/>
+    <sheet name="balance_id_to_entry" sheetId="10" r:id="rId9"/>
+    <sheet name="asset_id_to_entry" sheetId="12" r:id="rId10"/>
     <sheet name="transaction_id_to_entry" sheetId="8" r:id="rId11"/>
     <sheet name="pending_transaction_db" sheetId="17" r:id="rId12"/>
     <sheet name="contract_id_to_storage" sheetId="15" r:id="rId13"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="978">
   <si>
     <t>_alp_input_balance_entry</t>
   </si>
@@ -342,10 +342,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
@@ -1354,10 +1350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SlateIdType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>balance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1371,13 +1363,6 @@
   </si>
   <si>
     <t>last_update</t>
-  </si>
-  <si>
-    <t>last_update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta_data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1487,9 +1472,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>registration_date</t>
-  </si>
-  <si>
     <t>owner_key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1669,24 +1651,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>issuer_account_id</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>maximum_share_supply</t>
-  </si>
-  <si>
-    <t>current_share_supply</t>
-  </si>
-  <si>
-    <t>flags</t>
-  </si>
-  <si>
     <t>issuer_permissions</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1696,29 +1660,6 @@
   </si>
   <si>
     <t>market_fee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">authority
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MultisigMetaInfo</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2581,11 +2522,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.初始值应该是一个固定的数
-collected_fees -= （collected_fees / blocks_per_two_weeks） * pay_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每次减少的到代理手里了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3294,10 +3230,6 @@
   </si>
   <si>
     <t>最近一次更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">vector&lt;char&gt;  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3483,10 +3415,6 @@
   </si>
   <si>
     <t>第一次存款时间，balance==0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=+- optionamount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3743,10 +3671,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>public_data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>meta_data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3824,16 +3748,6 @@
   </si>
   <si>
     <t xml:space="preserve">    "flags": 0,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撤回
-余额冻结
-等等，  和flag结合使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发行者拥有的权限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3951,6 +3865,128 @@
   </si>
   <si>
     <t>_result_to_request_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_point_sec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlateIdType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vector&lt;char&gt;  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_point_sec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=+- optionamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">authority
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MultisigMetaInfo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issuer_account_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>registration_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximum_share_supply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_share_supply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32_t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShareType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行者拥1有的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.初始值应该是一个固定的数
+collected_fees -= （collected_fees / blocks_per_two_weeks） * pay_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回
+余额冻结
+等等和flag结合使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4471,12 +4507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4488,6 +4518,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4814,7 +4850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4931,7 +4967,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="54"/>
       <c r="B12" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -4958,7 +4994,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="54"/>
       <c r="B15" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -4979,7 +5015,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -4988,7 +5024,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -4997,7 +5033,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -5033,7 +5069,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -5060,7 +5096,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5075,7 +5111,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="54"/>
       <c r="B28" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -5102,10 +5138,10 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="54"/>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -5142,26 +5178,26 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="48.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>337</v>
+        <v>408</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -5171,264 +5207,403 @@
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>579</v>
+        <v>90</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>855</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>105</v>
+      <c r="E4" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="5" t="s">
-        <v>339</v>
-      </c>
+      <c r="A5" s="72"/>
+      <c r="B5" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="B6" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="5" t="s">
-        <v>342</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="72"/>
+      <c r="B7" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>830</v>
+        <v>367</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="21" t="s">
-        <v>834</v>
-      </c>
+      <c r="A8" s="72"/>
+      <c r="B8" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
-      <c r="B9" s="19" t="s">
-        <v>344</v>
+        <v>346</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="5" t="s">
+        <v>965</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>874</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>876</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="20" t="s">
-        <v>346</v>
+      <c r="A10" s="72"/>
+      <c r="B10" s="5" t="s">
+        <v>966</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>432</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>873</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="20" t="s">
-        <v>348</v>
+      <c r="A11" s="72"/>
+      <c r="B11" s="13" t="s">
+        <v>967</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>871</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="20" t="s">
-        <v>349</v>
+      <c r="A12" s="72"/>
+      <c r="B12" s="13" t="s">
+        <v>968</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>351</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
+      <c r="B14" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>976</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
+      <c r="B20" s="92" t="s">
+        <v>961</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="65"/>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="65"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="16" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5463,7 +5638,7 @@
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -5475,23 +5650,23 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
-      <c r="B2" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
+      <c r="B2" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="79"/>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5499,24 +5674,24 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>77</v>
@@ -5529,7 +5704,7 @@
         <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5542,10 +5717,10 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5554,16 +5729,16 @@
       <c r="C6" s="55"/>
       <c r="D6" s="71"/>
       <c r="E6" s="78" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5573,13 +5748,13 @@
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
       <c r="F7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5588,16 +5763,16 @@
       <c r="C8" s="55"/>
       <c r="D8" s="71"/>
       <c r="E8" s="78" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5607,13 +5782,13 @@
       <c r="D9" s="71"/>
       <c r="E9" s="71"/>
       <c r="F9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5626,10 +5801,10 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5642,10 +5817,10 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5653,135 +5828,135 @@
       <c r="B12" s="72"/>
       <c r="C12" s="55"/>
       <c r="D12" s="5" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
       <c r="C13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="I14" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
     </row>
     <row r="15" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
       <c r="C15" s="12" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
       <c r="B16" s="72"/>
       <c r="C16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" spans="1:9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18" spans="1:9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
       <c r="C18" s="5" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="11" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
       <c r="B19" s="72"/>
       <c r="C19" s="92" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="95" t="s">
-        <v>877</v>
+        <v>103</v>
+      </c>
+      <c r="I19" s="99" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="20" spans="1:9" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5789,37 +5964,37 @@
       <c r="B20" s="72"/>
       <c r="C20" s="92"/>
       <c r="D20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="96"/>
+        <v>104</v>
+      </c>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="100" t="s">
-        <v>878</v>
+      <c r="C21" s="98" t="s">
+        <v>862</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="96" t="s">
-        <v>879</v>
+        <v>103</v>
+      </c>
+      <c r="I21" s="100" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5827,337 +6002,337 @@
       <c r="B22" s="72"/>
       <c r="C22" s="92"/>
       <c r="D22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="96"/>
+        <v>104</v>
+      </c>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="1:9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
       <c r="C23" s="5" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
     </row>
     <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
       <c r="C24" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
       <c r="C25" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="I25" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26" spans="1:9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
       <c r="C26" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
     </row>
     <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="97" t="s">
-        <v>147</v>
+      <c r="B27" s="95" t="s">
+        <v>146</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
       <c r="B28" s="54"/>
       <c r="C28" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="17"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
@@ -6167,22 +6342,22 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
@@ -6192,32 +6367,32 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
@@ -6227,27 +6402,27 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
@@ -6257,72 +6432,72 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
@@ -6332,66 +6507,61 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="A1:H1"/>
@@ -6400,6 +6570,11 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B4:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6432,7 +6607,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -6443,38 +6618,38 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="79"/>
       <c r="F2" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>77</v>
@@ -6487,7 +6662,7 @@
         <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6499,10 +6674,10 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6510,16 +6685,16 @@
       <c r="B6" s="55"/>
       <c r="C6" s="71"/>
       <c r="D6" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6528,13 +6703,13 @@
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6542,16 +6717,16 @@
       <c r="B8" s="55"/>
       <c r="C8" s="71"/>
       <c r="D8" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6560,13 +6735,13 @@
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6578,10 +6753,10 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6593,10 +6768,10 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6608,233 +6783,233 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="88"/>
       <c r="B13" s="5" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
@@ -6844,22 +7019,22 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
@@ -6869,32 +7044,32 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
@@ -6904,27 +7079,27 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
@@ -6934,72 +7109,72 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
@@ -7009,57 +7184,57 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -7102,7 +7277,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -7113,58 +7288,58 @@
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73"/>
       <c r="B5" s="76" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -7172,197 +7347,197 @@
       <c r="A6" s="73"/>
       <c r="B6" s="77"/>
       <c r="C6" s="5" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7401,7 +7576,7 @@
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -7411,502 +7586,502 @@
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="86" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="87"/>
       <c r="B5" s="29" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="87"/>
       <c r="B6" s="29" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="87"/>
       <c r="B7" s="29" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87"/>
       <c r="B8" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="87"/>
       <c r="B9" s="76" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
       <c r="B10" s="77"/>
       <c r="C10" s="27" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="87"/>
       <c r="B11" s="77"/>
       <c r="C11" s="27" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="87"/>
       <c r="B12" s="77"/>
       <c r="C12" s="27" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="87"/>
       <c r="B13" s="77"/>
       <c r="C13" s="27" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="87"/>
       <c r="B14" s="77"/>
       <c r="C14" s="27" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="88"/>
       <c r="B15" s="29" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
@@ -7916,32 +8091,32 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7986,12 +8161,12 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
@@ -7999,21 +8174,21 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
       <c r="B3" s="34"/>
       <c r="C3" s="48" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F3" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -8024,7 +8199,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -8035,10 +8210,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F5" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -8049,7 +8224,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -8060,7 +8235,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -8071,25 +8246,25 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="F9" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -8100,7 +8275,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -8111,21 +8286,21 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="62"/>
       <c r="B12" s="66"/>
       <c r="C12" s="48" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="F12" s="65"/>
     </row>
@@ -8136,10 +8311,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -8150,46 +8325,46 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="62"/>
       <c r="B15" s="62" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="62"/>
       <c r="B16" s="62"/>
       <c r="C16" s="1" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="62"/>
       <c r="B17" s="62"/>
       <c r="C17" s="1" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -8200,18 +8375,18 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="62"/>
       <c r="B19" s="62"/>
       <c r="C19" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -8224,123 +8399,123 @@
         <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="63"/>
       <c r="B21" s="63"/>
       <c r="C21" s="1" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
       <c r="B22" s="33"/>
       <c r="C22" s="5" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="55"/>
       <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="56" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="52" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="56"/>
       <c r="B25" s="35"/>
       <c r="C25" s="52" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="56"/>
       <c r="B26" s="44"/>
       <c r="C26" s="48" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
       <c r="B27" s="45"/>
       <c r="C27" s="48" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
       <c r="B30" s="51" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="C30" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
       <c r="B31" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -8381,7 +8556,7 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -8393,21 +8568,21 @@
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
       <c r="F2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8417,18 +8592,18 @@
         <v>65</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>64</v>
@@ -8438,7 +8613,7 @@
         <v>65</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8453,7 +8628,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8465,10 +8640,10 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8476,14 +8651,14 @@
       <c r="B7" s="69"/>
       <c r="C7" s="71"/>
       <c r="D7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8491,17 +8666,17 @@
       <c r="B8" s="69"/>
       <c r="C8" s="71"/>
       <c r="D8" s="5" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="H8" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8516,7 +8691,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8531,16 +8706,16 @@
         <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="73"/>
       <c r="B11" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="70" t="s">
         <v>77</v>
@@ -8553,7 +8728,7 @@
         <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8565,10 +8740,10 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8576,16 +8751,16 @@
       <c r="B13" s="77"/>
       <c r="C13" s="71"/>
       <c r="D13" s="81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8594,13 +8769,13 @@
       <c r="C14" s="71"/>
       <c r="D14" s="82"/>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8608,16 +8783,16 @@
       <c r="B15" s="77"/>
       <c r="C15" s="71"/>
       <c r="D15" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
@@ -8626,13 +8801,13 @@
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8644,10 +8819,10 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8659,10 +8834,10 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8674,175 +8849,175 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
@@ -8852,342 +9027,342 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
@@ -9197,157 +9372,157 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
@@ -9357,342 +9532,342 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
@@ -9702,157 +9877,157 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
@@ -9862,342 +10037,342 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
@@ -10207,62 +10382,62 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A330" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -10290,7 +10465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
@@ -10308,7 +10483,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -10321,20 +10496,20 @@
       <c r="A2" s="9"/>
       <c r="B2" s="36"/>
       <c r="C2" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
       <c r="F2" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="7"/>
@@ -10344,21 +10519,21 @@
         <v>65</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C4" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="70" t="s">
         <v>96</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>97</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>64</v>
@@ -10400,10 +10575,10 @@
       <c r="C7" s="69"/>
       <c r="D7" s="71"/>
       <c r="E7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="84"/>
     </row>
@@ -10426,7 +10601,7 @@
       <c r="C9" s="69"/>
       <c r="D9" s="71"/>
       <c r="E9" s="5" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>68</v>
@@ -10450,23 +10625,23 @@
       <c r="A11" s="73"/>
       <c r="B11" s="88"/>
       <c r="C11" s="38" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="73"/>
       <c r="B12" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -10475,214 +10650,214 @@
         <v>65</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="73"/>
       <c r="B13" s="5" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="39"/>
       <c r="F13" s="1" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="73"/>
       <c r="B14" s="5" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="73"/>
       <c r="B15" s="5" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="39"/>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="73"/>
       <c r="B16" s="5" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="73"/>
       <c r="B17" s="5" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="73"/>
       <c r="B18" s="5" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="73"/>
       <c r="B19" s="5" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -10708,7 +10883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -10724,7 +10899,7 @@
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -10734,168 +10909,168 @@
       <c r="A2" s="9"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E4" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73"/>
       <c r="B5" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="73"/>
       <c r="B6" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E6" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="73"/>
       <c r="B7" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73"/>
       <c r="B8" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="73"/>
       <c r="B9" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -10929,724 +11104,724 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="B1" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C1" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="B2" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B3" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="B4" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="C4" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="B5" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="B6" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="C6" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="B8" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="C8" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="B9" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="C9" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
@@ -11656,142 +11831,142 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -11820,7 +11995,7 @@
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -11830,19 +12005,19 @@
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -11853,290 +12028,290 @@
     </row>
     <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73"/>
       <c r="B5" s="90"/>
       <c r="C5" s="27" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="73"/>
       <c r="B6" s="29" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="73"/>
       <c r="B7" s="29" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73"/>
       <c r="B8" s="29" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="73"/>
       <c r="B9" s="29" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="73"/>
       <c r="B10" s="29" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="73"/>
       <c r="B11" s="19" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -12159,7 +12334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -12176,7 +12351,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -12186,453 +12361,453 @@
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="86" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="87"/>
       <c r="B5" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="87"/>
       <c r="B6" s="5" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="87"/>
       <c r="B7" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87"/>
       <c r="B8" s="53" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="87"/>
       <c r="B9" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
       <c r="B10" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="87"/>
       <c r="B11" s="58" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="87"/>
       <c r="B12" s="59"/>
       <c r="C12" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="87"/>
       <c r="B13" s="59"/>
       <c r="C13" s="53" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F13" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="14" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="87"/>
       <c r="B14" s="59"/>
       <c r="C14" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="87"/>
       <c r="B15" s="59"/>
       <c r="C15" s="5" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F15" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="87"/>
       <c r="B16" s="59"/>
       <c r="C16" s="5" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="87"/>
       <c r="B17" s="59"/>
       <c r="C17" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="87"/>
       <c r="B18" s="59"/>
       <c r="C18" s="5" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="F18" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
       <c r="B19" s="60"/>
       <c r="C19" s="5" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="87"/>
       <c r="B20" s="91" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="2" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
     </row>
     <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="88"/>
       <c r="B21" s="91"/>
       <c r="C21" s="48" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="1" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="F21" s="64"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -12655,26 +12830,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="48.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="16" customWidth="1"/>
     <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -12684,403 +12859,264 @@
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="79" t="s">
-        <v>82</v>
+        <v>954</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>566</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>337</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>840</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>958</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>415</v>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>955</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="73"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="5" t="s">
+        <v>909</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>339</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="73"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>449</v>
+        <v>340</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="21" t="s">
+        <v>819</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="5" t="s">
-        <v>417</v>
+        <v>956</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="73"/>
+      <c r="B9" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>450</v>
+        <v>817</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>959</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="5" t="s">
-        <v>418</v>
+      <c r="A10" s="73"/>
+      <c r="B10" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
-        <v>445</v>
+        <v>952</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>451</v>
+        <v>844</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="13" t="s">
-        <v>374</v>
+      <c r="A11" s="73"/>
+      <c r="B11" s="20" t="s">
+        <v>960</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>957</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>452</v>
+        <v>818</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="13" t="s">
-        <v>347</v>
+      <c r="A12" s="73"/>
+      <c r="B12" s="20" t="s">
+        <v>953</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>347</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>627</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="65"/>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="65"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>845</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>211</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
